--- a/Data/Flows/floLogin.xlsx
+++ b/Data/Flows/floLogin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\PythonProject1\Data\Flows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Flows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EDBA5E-9CBC-4D01-BF2E-67B06FF4A84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9315C1D-F8CF-4D85-B480-D7F892A57442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2376" yWindow="924" windowWidth="35220" windowHeight="15300" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
+    <workbookView xWindow="768" yWindow="984" windowWidth="40440" windowHeight="15300" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Logoff</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>001_Login_002_LoginWithoutEmailAndPassword</t>
+  </si>
+  <si>
+    <t>var001_Login_001_Successful</t>
+  </si>
+  <si>
+    <t>var001_Login_002_LoginWithoutEmailAndPassword</t>
+  </si>
+  <si>
+    <t>var002_PasswordReset_001_Successful</t>
+  </si>
+  <si>
+    <t>var002_PasswordReset_002_BackToLogin</t>
   </si>
 </sst>
 </file>
@@ -416,7 +428,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,7 +458,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -460,7 +472,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -471,7 +483,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -482,7 +494,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
